--- a/public/Tadbir.xlsx
+++ b/public/Tadbir.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin.VICTUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fazo\UzKOJ\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5217975-77F7-4369-B0BB-B493CFA0B74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACF481C-7345-4A40-BE6E-497348240882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D38CC00A-148C-4428-802E-492225B87EF1}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +264,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -362,33 +369,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,26 +404,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -759,8 +771,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,625 +787,625 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="18">
         <f>SUM(G25,G27,G29)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="18">
         <f>SUM(G26,G28,G30)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="8" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="9"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="2">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="2">
         <v>2</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="2">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="2">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>7</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>8</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="8" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="9"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="2">
         <v>1</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -1401,13 +1413,13 @@
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="2">
         <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -1415,13 +1427,13 @@
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="2">
         <v>3</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -1429,13 +1441,13 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="2">
         <v>4</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -1443,13 +1455,13 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="2">
         <v>5</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -1457,13 +1469,13 @@
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="2">
         <v>6</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -1471,13 +1483,13 @@
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="2">
         <v>7</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -1485,61 +1497,61 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="14">
+      <c r="E53" s="4">
         <f>SUM(E54,E55,E56)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="4">
         <f>SUM(F54,F55,F56)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="4">
         <f>SUM(G54,G55,G56)</f>
         <v>0</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="4">
         <f>SUM(H54,H55,H56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="16" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="16" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="2">
         <v>8</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -1547,13 +1559,13 @@
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="A58" s="2">
         <v>9</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -1561,13 +1573,13 @@
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+      <c r="A59" s="2">
         <v>10</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -1575,13 +1587,13 @@
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60" s="2">
         <v>11</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -1589,13 +1601,13 @@
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+      <c r="A61" s="2">
         <v>12</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -1603,118 +1615,180 @@
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="63" spans="1:8" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="8" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="16"/>
+      <c r="G64" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H64" s="9"/>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="3" t="s">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15">
+      <c r="A66" s="5">
         <v>1</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15">
+      <c r="A67" s="5">
         <v>2</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15">
+      <c r="A68" s="5">
         <v>3</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15">
+      <c r="A69" s="5">
         <v>4</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="74">
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B68:D68"/>
@@ -1727,68 +1801,6 @@
     <mergeCell ref="B64:D65"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
